--- a/data/trans_orig/Q02D_LAB-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Provincia-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>11.21342704142893</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>5.860399212266204</v>
+        <v>5.860399212266205</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>3.085707048843098</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.835937708752232</v>
+        <v>1.808205004150825</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.866915672312975</v>
+        <v>5.878201362417427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.678655444062065</v>
+        <v>5.636210233408148</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.753132863811479</v>
+        <v>2.82329309880491</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.15957621122921</v>
+        <v>8.124008090922874</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.09665138797271</v>
+        <v>9.918323098295319</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.76587663414142</v>
+        <v>4.690474985494007</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.612951840207812</v>
+        <v>2.570294934766837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.424849841431619</v>
+        <v>7.444847489447906</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.315721663238541</v>
+        <v>8.296643224517027</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>4.617348637654426</v>
+        <v>4.549502450681515</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.673999964442131</v>
+        <v>3.770204862347811</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.440962679122346</v>
+        <v>7.545488891893001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.559731264855703</v>
+        <v>8.442345598293143</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>20.16685785881132</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.331504045817216</v>
+        <v>4.473411990035815</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.501031343953999</v>
+        <v>9.441158163704516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.59951303186906</v>
+        <v>12.5613201802657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.018234041023588</v>
+        <v>7.980590668517855</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.782899939590701</v>
+        <v>3.762887828916158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8.495651873761892</v>
+        <v>8.585291410635552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.39896912065234</v>
+        <v>10.22349096652458</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>10.90236628427609</v>
+        <v>11.45828211248848</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.035236412092116</v>
+        <v>5.020811142874295</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.251869045638713</v>
+        <v>6.231973092411464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.239554677094992</v>
+        <v>9.322934189252559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.69681897215523</v>
+        <v>6.861702757403761</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.583858947930101</v>
+        <v>7.58857876546364</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.554168881323397</v>
+        <v>7.393573367715811</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.86456664114993</v>
+        <v>10.99229015696706</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.8543097348998</v>
+        <v>8.879365514956227</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.872394283037926</v>
+        <v>6.975956700554752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.161616989924928</v>
+        <v>7.173560757426951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.6670702132797</v>
+        <v>10.6970929108612</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>9.231362576141279</v>
+        <v>9.433931708793184</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.276628117993671</v>
+        <v>7.241015580455653</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.41452911126445</v>
+        <v>7.37173704574418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.59685932742378</v>
+        <v>12.69557388719522</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.63720985604242</v>
+        <v>19.86233835738611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.37424146351762</v>
+        <v>9.26706723902389</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.608599270370917</v>
+        <v>8.55199318279408</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>13.51254757006118</v>
+        <v>13.52653723224229</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>13.57955106247481</v>
+        <v>13.22424114729717</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>8.24737303581251</v>
+        <v>8.366405174435025</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.998465729620966</v>
+        <v>7.963901901466353</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.89010439772988</v>
+        <v>12.85605466640057</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>13.69140379992994</v>
+        <v>13.47187927038298</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.430007172492512</v>
+        <v>1.449470743438422</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.508008232855745</v>
+        <v>2.515667626568014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.206121364562811</v>
+        <v>7.203863852565326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.98151749514747</v>
+        <v>11.72195368244803</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.069389841964928</v>
+        <v>3.085239727787022</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.25257097155837</v>
+        <v>4.207062995683144</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.304963717759337</v>
+        <v>9.347906704338627</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.447379804319171</v>
+        <v>8.451799643154086</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.546171991602993</v>
+        <v>2.505101666994413</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.623696778872681</v>
+        <v>3.63998426723564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8.854721254802008</v>
+        <v>8.697385575869877</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>10.47601434253196</v>
+        <v>10.81696990071076</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.839943880104571</v>
+        <v>2.962547342851703</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.714346004782986</v>
+        <v>3.646663618325853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.849424004912962</v>
+        <v>9.833858195761596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.85528215028462</v>
+        <v>21.78256397924559</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.588335765754828</v>
+        <v>4.573292724513145</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.252917383747421</v>
+        <v>5.279562349266929</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.59432179057523</v>
+        <v>12.63694154646519</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.22220969064536</v>
+        <v>15.09001115078369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.535905900072191</v>
+        <v>3.528608336778554</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4.40196799033464</v>
+        <v>4.48025000032136</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11.0270146005731</v>
+        <v>10.9001522167142</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.13365455599286</v>
+        <v>16.99180341606441</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>6.173995660329552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.470803473683341</v>
+        <v>5.470803473683339</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>4.008411441111737</v>
@@ -1101,7 +1101,7 @@
         <v>7.374957832892232</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>8.865461335265925</v>
+        <v>8.865461335265927</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.491327231628912</v>
+        <v>1.504392358586905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.004207008058398</v>
+        <v>5.018204868901357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.964524195118463</v>
+        <v>5.058757445724718</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.297749563168553</v>
+        <v>4.286604660588679</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.392484733920924</v>
+        <v>3.420104021213129</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.437288248382353</v>
+        <v>7.483177050188076</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.135119419570477</v>
+        <v>7.089875303263468</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.180192664718755</v>
+        <v>9.224093018265702</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.662774581604034</v>
+        <v>2.641408976951159</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.723722179583299</v>
+        <v>6.707426373464515</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.681404233361713</v>
+        <v>6.591026527958922</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>7.695683926510084</v>
+        <v>7.409624026551293</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.143520338330306</v>
+        <v>2.180684964355224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.470401277546761</v>
+        <v>6.534499534072116</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.016578160417515</v>
+        <v>8.004129241079603</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.548408703807815</v>
+        <v>6.591927433924505</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.890049795804059</v>
+        <v>4.994041350416553</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.888399356590703</v>
+        <v>8.817732250446198</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.112982108738338</v>
+        <v>9.031098812751656</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.24180258173214</v>
+        <v>13.01760876778606</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.79367360484218</v>
+        <v>3.667127990833518</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.786155013412209</v>
+        <v>7.781089863322381</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.309385274146399</v>
+        <v>8.282661180140309</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>10.96397932452523</v>
+        <v>10.75057475319981</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>3.800871686888351</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3.877908935282902</v>
+        <v>3.877908935282901</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.272593466013707</v>
+        <v>4.308403793034462</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.038047050286031</v>
+        <v>4.017593442555373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.79985591648453</v>
+        <v>2.784568159537087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.738104245095873</v>
+        <v>2.674275317055844</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.760179119800014</v>
+        <v>6.670497562850588</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.370643390681643</v>
+        <v>5.367360894051759</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.057583768344926</v>
+        <v>4.04669663027944</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.443377819123965</v>
+        <v>3.440607650605912</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.176528621841036</v>
+        <v>6.179324104044581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.064859072078067</v>
+        <v>5.014073849277339</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.542898845406049</v>
+        <v>3.565723494897039</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.203622814770154</v>
+        <v>3.249142338859686</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.512377222682852</v>
+        <v>7.62895447902008</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.946569981372083</v>
+        <v>5.9944958125601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.618771135865238</v>
+        <v>3.608872925268637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.2206165029793</v>
+        <v>4.243603761132181</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.859284979831839</v>
+        <v>9.914361122870694</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.91751515652914</v>
+        <v>6.958612410143712</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.712469720719621</v>
+        <v>4.699789756942001</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.843622389905311</v>
+        <v>5.935999503466646</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.573821361990873</v>
+        <v>8.643325689308323</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.336345825736927</v>
+        <v>6.219751930246523</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4.112957610119384</v>
+        <v>4.110523771026743</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>4.599752067041972</v>
+        <v>4.618773170570821</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>7.380179051316368</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>11.94553388179284</v>
+        <v>11.94553388179283</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.512895583462333</v>
+        <v>1.504453045004581</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.968365899703292</v>
+        <v>1.979758546343201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.095002832128015</v>
+        <v>5.18320014739267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.09402992990941</v>
+        <v>10.15396782227245</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>4.214891173703863</v>
+        <v>4.208921611805036</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.877479676415624</v>
+        <v>3.85016941232488</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.234018059724996</v>
+        <v>7.234118380953615</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>10.56555480718846</v>
+        <v>10.65575694009274</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.035808070185138</v>
+        <v>2.992093271652273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.148315200759965</v>
+        <v>3.173651065447776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6.556671222774662</v>
+        <v>6.58604062471171</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>10.77107018987747</v>
+        <v>10.82005766526729</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.231634942472285</v>
+        <v>2.201558308501596</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.807206817372915</v>
+        <v>2.805035363283098</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.184504868981145</v>
+        <v>7.556859215682677</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.61700406196731</v>
+        <v>14.19235717710543</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.407913573060236</v>
+        <v>7.199528559542664</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.049332709190321</v>
+        <v>5.059612044637247</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.08860213506951</v>
+        <v>10.06665775531405</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>14.28771077672471</v>
+        <v>14.2846421409874</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>4.882672460405279</v>
+        <v>4.760769753285472</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.97394431675942</v>
+        <v>3.997229642510637</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8.333564730833173</v>
+        <v>8.395788847493288</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>13.55915816331187</v>
+        <v>13.671746186838</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.409045054718151</v>
+        <v>2.458134581776354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.659692877417151</v>
+        <v>2.652353891919723</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.780058394743502</v>
+        <v>7.678734354875088</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.978770783274811</v>
+        <v>3.984327956713627</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.392448914841595</v>
+        <v>4.410547959626097</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.17802790997456</v>
+        <v>10.11806754447736</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>15.08595602566011</v>
+        <v>14.58798942617913</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.567348290413934</v>
+        <v>3.573321790494219</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.72372001304148</v>
+        <v>3.728419712509762</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9.530989964262783</v>
+        <v>9.537810945262885</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>11.12046620654676</v>
+        <v>12.12419954856036</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.049430270071023</v>
+        <v>3.982032115309554</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.28235163003014</v>
+        <v>3.294020335033377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.38212854165796</v>
+        <v>10.43885978188389</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>24</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.302758315068324</v>
+        <v>5.341696318053793</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.121500759176076</v>
+        <v>5.135975231992072</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.30824044180105</v>
+        <v>12.20303402028186</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>27.41117008867366</v>
+        <v>26.98804251336005</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.618373385267406</v>
+        <v>4.567911939031117</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4.255466381804172</v>
+        <v>4.239290041914191</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11.1843019573994</v>
+        <v>11.16329099319942</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>24.219002016948</v>
+        <v>24.99074060756253</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>4.80750143839426</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>4.834283760232558</v>
+        <v>4.834283760232557</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.226574312037726</v>
+        <v>5.154048675166904</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.164376026376337</v>
+        <v>5.208987920482851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.646578031963386</v>
+        <v>3.645001193520472</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.382322588012801</v>
+        <v>3.380323940476593</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.7422730628961</v>
+        <v>7.71111438554124</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.794361568919847</v>
+        <v>6.795058781313453</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>5.110035509379675</v>
+        <v>5.103162423481042</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>5.175015124213727</v>
+        <v>5.097207981642883</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>6.857612711632703</v>
+        <v>6.882247547047787</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6.329382450323902</v>
+        <v>6.341444785375926</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4.551286851809857</v>
+        <v>4.592277808742835</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>4.549886874160507</v>
+        <v>4.522761725536069</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.936010434568378</v>
+        <v>6.956360516930376</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.22665502363683</v>
+        <v>6.260727463879457</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.200808413833384</v>
+        <v>4.208759721526208</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.154625735085441</v>
+        <v>4.153881942916952</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>9.590385629118288</v>
+        <v>9.621201683986918</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.634912041914547</v>
+        <v>7.570722993711238</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>5.903244874467416</v>
+        <v>5.926056651070698</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>6.048420588778402</v>
+        <v>5.996243405062479</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>8.24388690779962</v>
+        <v>8.245962176830812</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6.982044126145004</v>
+        <v>6.973446994075378</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5.113310110615521</v>
+        <v>5.106260876893288</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>5.1833208261739</v>
+        <v>5.184099781683624</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>7.581759069705741</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>6.923712975452706</v>
+        <v>6.923712975452707</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.349190805251983</v>
+        <v>3.31901885244915</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.49201902693467</v>
+        <v>4.485314338831506</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.848031574111727</v>
+        <v>5.888441878051719</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.068397453941725</v>
+        <v>4.982465456691928</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.48646810708629</v>
+        <v>5.484570094389847</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.384214968855859</v>
+        <v>6.385546029757811</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.104369711906424</v>
+        <v>8.092042490055952</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.117882852324975</v>
+        <v>7.104817456806499</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.734740591094137</v>
+        <v>4.731775519231847</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5.708001087799634</v>
+        <v>5.704944086621871</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7.296452516851418</v>
+        <v>7.300649935433555</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>6.418705039805028</v>
+        <v>6.480108517818953</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.02254048620712</v>
+        <v>3.940310998409816</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.946980394629359</v>
+        <v>4.970967950511612</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.660812896166981</v>
+        <v>6.705785051898292</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.601819460402996</v>
+        <v>6.625383901310363</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.222726475989657</v>
+        <v>6.151034401636835</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.828654022334335</v>
+        <v>6.8306539324224</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.849410663691625</v>
+        <v>8.866605483275602</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.291731674026222</v>
+        <v>8.391105211801429</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.226851036686699</v>
+        <v>5.262280681129933</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6.03253248467217</v>
+        <v>6.020654830794018</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7.860818298937198</v>
+        <v>7.887382292452437</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>7.413866809603816</v>
+        <v>7.472742641848059</v>
       </c>
     </row>
     <row r="31">
